--- a/excel/contrcat_10500.xlsx
+++ b/excel/contrcat_10500.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>労働契約書</t>
     <rPh sb="0" eb="2">
@@ -646,176 +646,6 @@
     <rPh sb="5" eb="7">
       <t>ハッソウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B00350</t>
-  </si>
-  <si>
-    <t>10976</t>
-  </si>
-  <si>
-    <t>HAL0103-4</t>
-  </si>
-  <si>
-    <t>小林 正明</t>
-  </si>
-  <si>
-    <t>ｺﾊﾞﾔｼ ﾏｻｱｷ</t>
-  </si>
-  <si>
-    <t>株式会社日本コンピュータコンサルタント</t>
-  </si>
-  <si>
-    <t>派遣</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>稼働率</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>月末</t>
-  </si>
-  <si>
-    <t>翌々月11日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">※休憩時間外：17:30～17:55(25分)
-　　　　　　　　　　21:55～22:35(40分)
-※契約開始は4/3だが、1,2日は土日のため待機なし
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>公23</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>福岡県福岡市早良区百道浜2-1-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>092-844-0010</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>平田　厚治</t>
-    <rPh sb="0" eb="2">
-      <t>ヒラタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナオ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>橋口　慎</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>後藤　博光</t>
-    <rPh sb="0" eb="2">
-      <t>ゴトウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒロシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>※定時外の休憩：有17:30～17:55(25分)
-　　　　　　　　　　21:55～22:35(40分)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>後藤　博光</t>
-    <rPh sb="0" eb="2">
-      <t>ゴトウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒロシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒカル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>090-9386-8923</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>済</t>
-    <rPh sb="0" eb="1">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B00351</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10978</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HAL0149-3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>村松　信明</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ﾑﾗﾏﾂ ﾉﾌﾞｱｷ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>日本自動化開発株式会社</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>準委任</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>稼働率</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>月末</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>翌々月11日</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>※時間外休憩あり(17:45～18:00)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>496-0801</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>愛知県津島市藤浪町2丁目1-2津島団地3棟403号</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1229,6 +1059,127 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1237,127 +1188,6 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
@@ -1391,10 +1221,6 @@
       <sheetName val="Sheet2"/>
       <sheetName val="派遣契約書 (フォーム変更例） (2)"/>
     </sheetNames>
-    <definedNames>
-      <definedName name="ボタン25_Click"/>
-      <definedName name="ボタン26_Click"/>
-    </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
@@ -1733,33 +1559,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="64" customWidth="1"/>
-    <col min="2" max="3" width="12.625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="65" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="66" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="64" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="68" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="69" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="70" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="70" customWidth="1"/>
-    <col min="12" max="13" width="8.5" style="71" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="70" customWidth="1"/>
-    <col min="15" max="18" width="8.5" style="71" customWidth="1"/>
-    <col min="19" max="21" width="8.5" style="72" customWidth="1"/>
-    <col min="22" max="24" width="8.5" style="71" customWidth="1"/>
-    <col min="25" max="25" width="9.75" style="71" customWidth="1"/>
-    <col min="26" max="42" width="9" style="71"/>
-    <col min="43" max="43" width="61.5" style="71" customWidth="1"/>
-    <col min="44" max="50" width="9" style="71"/>
-    <col min="51" max="51" width="9" style="73"/>
-    <col min="52" max="52" width="32.375" style="71" customWidth="1"/>
-    <col min="53" max="53" width="15.125" style="63" customWidth="1"/>
-    <col min="54" max="55" width="9" style="71"/>
-    <col min="56" max="56" width="9.375" style="71" customWidth="1"/>
-    <col min="57" max="57" width="13.875" style="71" customWidth="1"/>
-    <col min="58" max="58" width="14.375" style="71" customWidth="1"/>
-    <col min="59" max="16384" width="9" style="71"/>
+    <col min="1" max="1" width="10.625" style="44" customWidth="1"/>
+    <col min="2" max="3" width="12.625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="46" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="44" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="50" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="50" customWidth="1"/>
+    <col min="12" max="13" width="8.5" style="51" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="50" customWidth="1"/>
+    <col min="15" max="18" width="8.5" style="51" customWidth="1"/>
+    <col min="19" max="21" width="8.5" style="52" customWidth="1"/>
+    <col min="22" max="24" width="8.5" style="51" customWidth="1"/>
+    <col min="25" max="25" width="9.75" style="51" customWidth="1"/>
+    <col min="26" max="42" width="9" style="51"/>
+    <col min="43" max="43" width="61.5" style="51" customWidth="1"/>
+    <col min="44" max="50" width="9" style="51"/>
+    <col min="51" max="51" width="9" style="53"/>
+    <col min="52" max="52" width="32.375" style="51" customWidth="1"/>
+    <col min="53" max="53" width="15.125" style="43" customWidth="1"/>
+    <col min="54" max="55" width="9" style="51"/>
+    <col min="56" max="56" width="9.375" style="51" customWidth="1"/>
+    <col min="57" max="57" width="13.875" style="51" customWidth="1"/>
+    <col min="58" max="58" width="14.375" style="51" customWidth="1"/>
+    <col min="59" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:75" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1965,7 +1791,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:75" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:75" s="9" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1975,109 +1801,109 @@
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="12" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="16" t="s">
+      <c r="O4" s="72"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16" t="s">
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16" t="s">
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="17" t="s">
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="17" t="s">
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="20" t="s">
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="22" t="s">
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="21" t="s">
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AV4" s="21"/>
-      <c r="AW4" s="21" t="s">
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AX4" s="24"/>
-      <c r="AY4" s="25" t="s">
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="27"/>
-      <c r="BE4" s="29"/>
-      <c r="BF4" s="29"/>
-      <c r="BG4" s="29"/>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="29"/>
-      <c r="BJ4" s="30" t="s">
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="58"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="BK4" s="30"/>
-      <c r="BL4" s="30" t="s">
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="BM4" s="30"/>
-      <c r="BN4" s="30"/>
-      <c r="BO4" s="31" t="s">
+      <c r="BM4" s="59"/>
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:75" s="49" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:75" s="29" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2086,508 +1912,290 @@
       <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="17" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="41" t="s">
+      <c r="U5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="41" t="s">
+      <c r="V5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="40" t="s">
+      <c r="W5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="40" t="s">
+      <c r="X5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="40" t="s">
+      <c r="Y5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="41" t="s">
+      <c r="Z5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="41" t="s">
+      <c r="AA5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AB5" s="41" t="s">
+      <c r="AB5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="40" t="s">
+      <c r="AC5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="40" t="s">
+      <c r="AD5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AE5" s="40" t="s">
+      <c r="AE5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AF5" s="41" t="s">
+      <c r="AF5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AG5" s="41" t="s">
+      <c r="AG5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AH5" s="41" t="s">
+      <c r="AH5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AI5" s="40" t="s">
+      <c r="AI5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AJ5" s="40" t="s">
+      <c r="AJ5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AK5" s="40" t="s">
+      <c r="AK5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AL5" s="40" t="s">
+      <c r="AL5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AM5" s="40" t="s">
+      <c r="AM5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AN5" s="40" t="s">
+      <c r="AN5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="AO5" s="42" t="s">
+      <c r="AO5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AP5" s="43" t="s">
+      <c r="AP5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AQ5" s="44" t="s">
+      <c r="AQ5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="AR5" s="44" t="s">
+      <c r="AR5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="AS5" s="44" t="s">
+      <c r="AS5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="AT5" s="44" t="s">
+      <c r="AT5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="AU5" s="44" t="s">
+      <c r="AU5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="AV5" s="44" t="s">
+      <c r="AV5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="AW5" s="44" t="s">
+      <c r="AW5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AX5" s="45" t="s">
+      <c r="AX5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AY5" s="46" t="s">
+      <c r="AY5" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AZ5" s="47" t="s">
+      <c r="AZ5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="BA5" s="48" t="s">
+      <c r="BA5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="BB5" s="49" t="s">
+      <c r="BB5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="BE5" s="50" t="s">
+      <c r="BE5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="BF5" s="50" t="s">
+      <c r="BF5" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="BG5" s="50" t="s">
+      <c r="BG5" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="BH5" s="50" t="s">
+      <c r="BH5" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="BI5" s="50"/>
-      <c r="BJ5" s="50" t="s">
+      <c r="BI5" s="30"/>
+      <c r="BJ5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="BK5" s="50" t="s">
+      <c r="BK5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="BL5" s="50" t="s">
+      <c r="BL5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="BM5" s="50" t="s">
+      <c r="BM5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="BN5" s="50" t="s">
+      <c r="BN5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="BO5" s="50" t="s">
+      <c r="BO5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="BW5" s="49" t="s">
+      <c r="BW5" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:75" s="59" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="53">
-        <v>42825</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="53">
-        <v>42828</v>
-      </c>
-      <c r="J6" s="53">
-        <v>42916</v>
-      </c>
-      <c r="K6" s="55">
-        <v>0.375</v>
-      </c>
-      <c r="L6" s="55">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="M6" s="55">
-        <v>0.32291666666666663</v>
-      </c>
-      <c r="N6" s="55">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="O6" s="55">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="P6" s="55">
-        <v>3.125E-2</v>
-      </c>
-      <c r="Q6" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="S6" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="T6" s="57">
-        <v>330000</v>
-      </c>
-      <c r="U6" s="56">
-        <v>140</v>
-      </c>
-      <c r="V6" s="56">
-        <v>190</v>
-      </c>
-      <c r="W6" s="57">
-        <v>2350</v>
-      </c>
-      <c r="X6" s="57">
-        <v>1730</v>
-      </c>
-      <c r="Y6" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z6" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA6" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB6" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC6" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD6" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE6" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH6" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI6" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ6" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK6" s="54">
-        <v>30</v>
-      </c>
-      <c r="AL6" s="54">
-        <v>30</v>
-      </c>
-      <c r="AM6" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN6" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO6" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP6" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ6" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR6" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT6" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV6" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX6" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB6" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE6" s="62">
-        <v>43374</v>
-      </c>
-      <c r="BG6" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK6" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="BM6" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN6" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO6" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW6" s="59" t="s">
-        <v>86</v>
-      </c>
+    <row r="6" spans="1:75" s="39" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="34"/>
+      <c r="AV6" s="40"/>
+      <c r="BB6" s="41"/>
+      <c r="BE6" s="42"/>
+      <c r="BG6" s="34"/>
+      <c r="BK6" s="40"/>
     </row>
-    <row r="7" spans="1:75" s="59" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="53">
-        <v>42825</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="53">
-        <v>42826</v>
-      </c>
-      <c r="J7" s="53">
-        <v>42916</v>
-      </c>
-      <c r="K7" s="55">
-        <v>0.375</v>
-      </c>
-      <c r="L7" s="55">
-        <v>0.75</v>
-      </c>
-      <c r="M7" s="55">
-        <v>0.34375</v>
-      </c>
-      <c r="N7" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="55">
-        <v>0.53125</v>
-      </c>
-      <c r="P7" s="55">
-        <v>3.125E-2</v>
-      </c>
-      <c r="Q7" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="R7" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="S7" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="T7" s="57">
-        <v>272600</v>
-      </c>
-      <c r="U7" s="56">
-        <v>140</v>
-      </c>
-      <c r="V7" s="56">
-        <v>190</v>
-      </c>
-      <c r="W7" s="57">
-        <v>1940</v>
-      </c>
-      <c r="X7" s="57">
-        <v>1430</v>
-      </c>
-      <c r="Y7" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z7" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA7" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB7" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC7" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD7" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE7" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF7" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG7" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH7" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI7" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ7" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK7" s="54">
-        <v>30</v>
-      </c>
-      <c r="AL7" s="54">
-        <v>30</v>
-      </c>
-      <c r="AM7" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN7" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO7" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AY7" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ7" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA7" s="63">
-        <v>20587</v>
-      </c>
-      <c r="BB7" s="59" t="s">
-        <v>98</v>
-      </c>
+    <row r="7" spans="1:75" s="39" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="BA7" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:CM7"/>
   <mergeCells count="17">
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AY4:BA4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="AE4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -2595,6 +2203,16 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="AE4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AY4:BA4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BL4:BN4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/excel/contrcat_10500.xlsx
+++ b/excel/contrcat_10500.xlsx
@@ -1058,11 +1058,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,24 +1158,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1188,6 +1170,24 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
@@ -1554,38 +1554,38 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="44" customWidth="1"/>
-    <col min="2" max="3" width="12.625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="45" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="46" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="44" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="50" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="50" customWidth="1"/>
-    <col min="12" max="13" width="8.5" style="51" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="50" customWidth="1"/>
-    <col min="15" max="18" width="8.5" style="51" customWidth="1"/>
-    <col min="19" max="21" width="8.5" style="52" customWidth="1"/>
-    <col min="22" max="24" width="8.5" style="51" customWidth="1"/>
-    <col min="25" max="25" width="9.75" style="51" customWidth="1"/>
-    <col min="26" max="42" width="9" style="51"/>
-    <col min="43" max="43" width="61.5" style="51" customWidth="1"/>
-    <col min="44" max="50" width="9" style="51"/>
-    <col min="51" max="51" width="9" style="53"/>
-    <col min="52" max="52" width="32.375" style="51" customWidth="1"/>
-    <col min="53" max="53" width="15.125" style="43" customWidth="1"/>
-    <col min="54" max="55" width="9" style="51"/>
-    <col min="56" max="56" width="9.375" style="51" customWidth="1"/>
-    <col min="57" max="57" width="13.875" style="51" customWidth="1"/>
-    <col min="58" max="58" width="14.375" style="51" customWidth="1"/>
-    <col min="59" max="16384" width="9" style="51"/>
+    <col min="1" max="1" width="10.625" style="42" customWidth="1"/>
+    <col min="2" max="3" width="12.625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="43" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="44" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="42" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="48" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="48" customWidth="1"/>
+    <col min="12" max="13" width="8.5" style="49" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="48" customWidth="1"/>
+    <col min="15" max="18" width="8.5" style="49" customWidth="1"/>
+    <col min="19" max="21" width="8.5" style="50" customWidth="1"/>
+    <col min="22" max="24" width="8.5" style="49" customWidth="1"/>
+    <col min="25" max="25" width="9.75" style="49" customWidth="1"/>
+    <col min="26" max="42" width="9" style="49"/>
+    <col min="43" max="43" width="61.5" style="49" customWidth="1"/>
+    <col min="44" max="50" width="9" style="49"/>
+    <col min="51" max="51" width="9" style="51"/>
+    <col min="52" max="52" width="32.375" style="49" customWidth="1"/>
+    <col min="53" max="53" width="15.125" style="41" customWidth="1"/>
+    <col min="54" max="55" width="9" style="49"/>
+    <col min="56" max="56" width="9.375" style="49" customWidth="1"/>
+    <col min="57" max="57" width="13.875" style="49" customWidth="1"/>
+    <col min="58" max="58" width="14.375" style="49" customWidth="1"/>
+    <col min="59" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:75" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1791,411 +1791,416 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:75" s="9" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:75" s="7" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="66" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71" t="s">
+      <c r="J4" s="60"/>
+      <c r="K4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="71" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="72"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="60" t="s">
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60" t="s">
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60" t="s">
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="61" t="s">
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="61" t="s">
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="63" t="s">
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="64" t="s">
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AT4" s="65"/>
-      <c r="AU4" s="54" t="s">
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54" t="s">
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="56" t="s">
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="58"/>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="10"/>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="10"/>
-      <c r="BJ4" s="59" t="s">
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="73"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="59" t="s">
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="BM4" s="59"/>
-      <c r="BN4" s="59"/>
-      <c r="BO4" s="11" t="s">
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="71"/>
+      <c r="BO4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:75" s="29" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:75" s="27" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="U5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="W5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="20" t="s">
+      <c r="X5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="Z5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AB5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="20" t="s">
+      <c r="AC5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="20" t="s">
+      <c r="AD5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AE5" s="20" t="s">
+      <c r="AE5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AF5" s="21" t="s">
+      <c r="AF5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AG5" s="21" t="s">
+      <c r="AG5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AH5" s="21" t="s">
+      <c r="AH5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AI5" s="20" t="s">
+      <c r="AI5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AJ5" s="20" t="s">
+      <c r="AJ5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AK5" s="20" t="s">
+      <c r="AK5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AL5" s="20" t="s">
+      <c r="AL5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AM5" s="20" t="s">
+      <c r="AM5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AN5" s="20" t="s">
+      <c r="AN5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AO5" s="22" t="s">
+      <c r="AO5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AP5" s="23" t="s">
+      <c r="AP5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AQ5" s="24" t="s">
+      <c r="AQ5" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AR5" s="24" t="s">
+      <c r="AR5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AS5" s="24" t="s">
+      <c r="AS5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AT5" s="24" t="s">
+      <c r="AT5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AU5" s="24" t="s">
+      <c r="AU5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AV5" s="24" t="s">
+      <c r="AV5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AW5" s="24" t="s">
+      <c r="AW5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AX5" s="25" t="s">
+      <c r="AX5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AY5" s="26" t="s">
+      <c r="AY5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="AZ5" s="27" t="s">
+      <c r="AZ5" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="BA5" s="28" t="s">
+      <c r="BA5" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="BB5" s="29" t="s">
+      <c r="BB5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="BE5" s="30" t="s">
+      <c r="BE5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="BF5" s="30" t="s">
+      <c r="BF5" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="BG5" s="30" t="s">
+      <c r="BG5" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="BH5" s="30" t="s">
+      <c r="BH5" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="BI5" s="30"/>
-      <c r="BJ5" s="30" t="s">
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="BK5" s="30" t="s">
+      <c r="BK5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="BL5" s="30" t="s">
+      <c r="BL5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="BM5" s="30" t="s">
+      <c r="BM5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="BN5" s="30" t="s">
+      <c r="BN5" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="BO5" s="30" t="s">
+      <c r="BO5" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="BW5" s="29" t="s">
+      <c r="BW5" s="27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:75" s="39" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="34"/>
-      <c r="AQ6" s="34"/>
-      <c r="AV6" s="40"/>
-      <c r="BB6" s="41"/>
-      <c r="BE6" s="42"/>
-      <c r="BG6" s="34"/>
-      <c r="BK6" s="40"/>
+    <row r="6" spans="1:75" s="37" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AV6" s="38"/>
+      <c r="BB6" s="39"/>
+      <c r="BE6" s="40"/>
+      <c r="BG6" s="32"/>
+      <c r="BK6" s="38"/>
     </row>
-    <row r="7" spans="1:75" s="39" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="34"/>
-      <c r="AQ7" s="34"/>
-      <c r="BA7" s="43"/>
+    <row r="7" spans="1:75" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="BA7" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:CM7"/>
   <mergeCells count="17">
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AY4:BA4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BL4:BN4"/>
     <mergeCell ref="AS4:AT4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -2208,11 +2213,6 @@
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
     <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AY4:BA4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BL4:BN4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/excel/contrcat_10500.xlsx
+++ b/excel/contrcat_10500.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,10 +18,10 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'契約書台帳（リスト）'!$A$5:$CM$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'契約書台帳（リスト）'!$A$5:$CE$7</definedName>
     <definedName name="性別">[1]Sheet1!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1160,6 +1160,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1174,20 +1188,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
@@ -1548,13 +1548,13 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:BW7"/>
+  <dimension ref="A3:BO7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1588,7 +1588,7 @@
     <col min="59" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:75" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1770,28 +1770,25 @@
         <v>60</v>
       </c>
       <c r="BI3" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BJ3" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BK3" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BL3" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BM3" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BN3" s="4">
-        <v>66</v>
-      </c>
-      <c r="BO3" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:75" s="7" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:67" s="7" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1801,105 +1798,104 @@
       <c r="C4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="56" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61" t="s">
+      <c r="J4" s="66"/>
+      <c r="K4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="61" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="63"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="69"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64" t="s">
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64" t="s">
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="65" t="s">
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="65" t="s">
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="AN4" s="66"/>
+      <c r="AN4" s="72"/>
       <c r="AO4" s="53"/>
-      <c r="AP4" s="67" t="s">
+      <c r="AP4" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="54" t="s">
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="68" t="s">
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="68" t="s">
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="70" t="s">
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="73"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="58"/>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
       <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="71" t="s">
+      <c r="BI4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71" t="s">
+      <c r="BJ4" s="59"/>
+      <c r="BK4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="71"/>
-      <c r="BO4" s="9" t="s">
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="59"/>
+      <c r="BN4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:75" s="27" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:67" s="27" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -2074,30 +2070,29 @@
       <c r="BH5" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="BI5" s="28"/>
+      <c r="BI5" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="BJ5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="BK5" s="28" t="s">
+      <c r="BL5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="BL5" s="28" t="s">
-        <v>52</v>
-      </c>
       <c r="BM5" s="28" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="BN5" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="BO5" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="BW5" s="27" t="s">
+      <c r="BO5" s="27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:75" s="37" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:67" s="37" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
@@ -2145,9 +2140,9 @@
       <c r="BB6" s="39"/>
       <c r="BE6" s="40"/>
       <c r="BG6" s="32"/>
-      <c r="BK6" s="38"/>
+      <c r="BJ6" s="38"/>
     </row>
-    <row r="7" spans="1:75" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:67" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
@@ -2194,13 +2189,8 @@
       <c r="BA7" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:CM7"/>
+  <autoFilter ref="A5:CE7"/>
   <mergeCells count="17">
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AY4:BA4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BL4:BN4"/>
     <mergeCell ref="AS4:AT4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -2213,6 +2203,11 @@
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
     <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AY4:BA4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BK4:BM4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/excel/contrcat_10500.xlsx
+++ b/excel/contrcat_10500.xlsx
@@ -1160,20 +1160,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1188,6 +1174,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
@@ -1554,12 +1554,12 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="0.875" style="42" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="43" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="43" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="44" customWidth="1"/>
@@ -1798,99 +1798,99 @@
       <c r="C4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="62" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67" t="s">
+      <c r="J4" s="60"/>
+      <c r="K4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="68"/>
-      <c r="P4" s="69"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70" t="s">
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70" t="s">
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="71" t="s">
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="71" t="s">
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AN4" s="72"/>
+      <c r="AN4" s="66"/>
       <c r="AO4" s="53"/>
-      <c r="AP4" s="73" t="s">
+      <c r="AP4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="60" t="s">
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="54" t="s">
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54" t="s">
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="56" t="s">
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="58"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="72"/>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
       <c r="BH4" s="8"/>
-      <c r="BI4" s="59" t="s">
+      <c r="BI4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59" t="s">
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="59"/>
+      <c r="BL4" s="73"/>
+      <c r="BM4" s="73"/>
       <c r="BN4" s="9" t="s">
         <v>20</v>
       </c>
@@ -2191,6 +2191,11 @@
   </sheetData>
   <autoFilter ref="A5:CE7"/>
   <mergeCells count="17">
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AY4:BA4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BK4:BM4"/>
     <mergeCell ref="AS4:AT4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -2203,11 +2208,6 @@
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AN4"/>
     <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AY4:BA4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BK4:BM4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
